--- a/test/notes/produtos.xlsx
+++ b/test/notes/produtos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Documentos\Code\Plataform\BixAssistant\test\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472E9454-FD13-446F-A823-9743F282DB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F65F5D-0AA9-483D-94D3-D48996A3F519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C4AA676-26A8-4F11-A80C-EEF9A3F9CC55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C4AA676-26A8-4F11-A80C-EEF9A3F9CC55}"/>
   </bookViews>
   <sheets>
     <sheet name="produtos" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="177">
   <si>
     <t>Codigo</t>
   </si>
@@ -129,12 +129,6 @@
     <t>Brahma Zero</t>
   </si>
   <si>
-    <t>Brownie</t>
-  </si>
-  <si>
-    <t>Sobremesas</t>
-  </si>
-  <si>
     <t>Buchanans</t>
   </si>
   <si>
@@ -562,27 +556,6 @@
   </si>
   <si>
     <t>Vinagrete individual</t>
-  </si>
-  <si>
-    <t>Vinho Casal Garcia</t>
-  </si>
-  <si>
-    <t>Vinhos</t>
-  </si>
-  <si>
-    <t>Vinho Casillero Branco</t>
-  </si>
-  <si>
-    <t>Vinho Concha Y Toro Branco</t>
-  </si>
-  <si>
-    <t>Vinho Frascati</t>
-  </si>
-  <si>
-    <t>Vinho St Helena Branco</t>
-  </si>
-  <si>
-    <t>Vinho Sta Helena</t>
   </si>
   <si>
     <t>White Horse</t>
@@ -949,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D06203D-6BE9-4751-A30A-FFBFC6948592}">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="K178" sqref="K178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1038,7 +1011,7 @@
         <v>1690391</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1052,7 +1025,7 @@
         <v>1663284</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>7.5</v>
@@ -1066,7 +1039,7 @@
         <v>1663280</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>6.5</v>
@@ -1080,7 +1053,7 @@
         <v>5067035</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>15.9</v>
@@ -1094,7 +1067,7 @@
         <v>1663281</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>6.5</v>
@@ -1108,7 +1081,7 @@
         <v>1663282</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>6.5</v>
@@ -1122,7 +1095,7 @@
         <v>1663286</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>7.5</v>
@@ -1136,7 +1109,7 @@
         <v>1663318</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <v>15.9</v>
@@ -1150,7 +1123,7 @@
         <v>3309109</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <v>5.9</v>
@@ -1164,7 +1137,7 @@
         <v>1663285</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15">
         <v>7.5</v>
@@ -1178,7 +1151,7 @@
         <v>1663289</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1192,7 +1165,7 @@
         <v>1663287</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -1206,7 +1179,7 @@
         <v>1663292</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1220,7 +1193,7 @@
         <v>1663291</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -1234,7 +1207,7 @@
         <v>1663288</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -1248,7 +1221,7 @@
         <v>1663290</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -1262,7 +1235,7 @@
         <v>1663283</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C22">
         <v>7.5</v>
@@ -1360,7 +1333,7 @@
         <v>1663274</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>10.9</v>
@@ -1374,7 +1347,7 @@
         <v>1949635</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <v>10.9</v>
@@ -1388,7 +1361,7 @@
         <v>3824714</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31">
         <v>12.9</v>
@@ -1402,7 +1375,7 @@
         <v>1663081</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C32">
         <v>16.899999999999999</v>
@@ -1416,7 +1389,7 @@
         <v>2579585</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33">
         <v>17.899999999999999</v>
@@ -1430,7 +1403,7 @@
         <v>1663275</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C34">
         <v>9.9</v>
@@ -1444,7 +1417,7 @@
         <v>1663270</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35">
         <v>14.9</v>
@@ -1458,7 +1431,7 @@
         <v>1663269</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C36">
         <v>9.9</v>
@@ -1472,7 +1445,7 @@
         <v>5069140</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C37">
         <v>10.9</v>
@@ -1486,7 +1459,7 @@
         <v>1663278</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C38">
         <v>18.899999999999999</v>
@@ -1528,7 +1501,7 @@
         <v>1663298</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41">
         <v>27</v>
@@ -1542,7 +1515,7 @@
         <v>1663312</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>18.899999999999999</v>
@@ -1556,7 +1529,7 @@
         <v>1663313</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>23.9</v>
@@ -1570,7 +1543,7 @@
         <v>1663315</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C44">
         <v>23.9</v>
@@ -1584,7 +1557,7 @@
         <v>1663314</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>23.9</v>
@@ -1598,7 +1571,7 @@
         <v>1663300</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>18</v>
@@ -1612,7 +1585,7 @@
         <v>1663326</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>70</v>
@@ -1626,7 +1599,7 @@
         <v>1663311</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C48">
         <v>9</v>
@@ -1640,7 +1613,7 @@
         <v>1663303</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49">
         <v>14</v>
@@ -1654,7 +1627,7 @@
         <v>1663304</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50">
         <v>19</v>
@@ -1668,7 +1641,7 @@
         <v>1663316</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C51">
         <v>18.899999999999999</v>
@@ -1682,7 +1655,7 @@
         <v>1663317</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C52">
         <v>24.9</v>
@@ -1696,7 +1669,7 @@
         <v>1663301</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C53">
         <v>9</v>
@@ -1710,7 +1683,7 @@
         <v>1663296</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C54">
         <v>15.9</v>
@@ -1724,7 +1697,7 @@
         <v>1663307</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C55">
         <v>13</v>
@@ -1738,7 +1711,7 @@
         <v>1663309</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -1752,7 +1725,7 @@
         <v>1663319</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57">
         <v>14.9</v>
@@ -1766,7 +1739,7 @@
         <v>1663305</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C58">
         <v>16</v>
@@ -1780,7 +1753,7 @@
         <v>1663306</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -1794,7 +1767,7 @@
         <v>1663308</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C60">
         <v>9</v>
@@ -1808,7 +1781,7 @@
         <v>1823446</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C61">
         <v>10</v>
@@ -1822,7 +1795,7 @@
         <v>1663297</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C62">
         <v>14.9</v>
@@ -1948,7 +1921,7 @@
         <v>1718998</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C71">
         <v>15</v>
@@ -1962,7 +1935,7 @@
         <v>1663373</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C72">
         <v>60.9</v>
@@ -1976,7 +1949,7 @@
         <v>1663374</v>
       </c>
       <c r="B73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C73">
         <v>34</v>
@@ -1990,7 +1963,7 @@
         <v>1663358</v>
       </c>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C74">
         <v>34.9</v>
@@ -2004,7 +1977,7 @@
         <v>1663357</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C75">
         <v>31.9</v>
@@ -2018,7 +1991,7 @@
         <v>2668396</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C76">
         <v>98.9</v>
@@ -2032,7 +2005,7 @@
         <v>1663352</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C77">
         <v>17</v>
@@ -2046,7 +2019,7 @@
         <v>1663343</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C78">
         <v>28.9</v>
@@ -2060,7 +2033,7 @@
         <v>1694034</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -2074,7 +2047,7 @@
         <v>1663344</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C80">
         <v>19.899999999999999</v>
@@ -2088,7 +2061,7 @@
         <v>1663386</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C81">
         <v>69.900000000000006</v>
@@ -2102,7 +2075,7 @@
         <v>1663387</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C82">
         <v>39.9</v>
@@ -2116,7 +2089,7 @@
         <v>1663349</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C83">
         <v>25.9</v>
@@ -2130,7 +2103,7 @@
         <v>1663400</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C84">
         <v>199.9</v>
@@ -2144,7 +2117,7 @@
         <v>1663399</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C85">
         <v>159.9</v>
@@ -2158,7 +2131,7 @@
         <v>1663345</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C86">
         <v>15</v>
@@ -2172,7 +2145,7 @@
         <v>1663346</v>
       </c>
       <c r="B87" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C87">
         <v>24.9</v>
@@ -2186,7 +2159,7 @@
         <v>5067039</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C88">
         <v>22.9</v>
@@ -2200,7 +2173,7 @@
         <v>3108180</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -2256,7 +2229,7 @@
         <v>1663355</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C93">
         <v>139.9</v>
@@ -2270,7 +2243,7 @@
         <v>1663356</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C94">
         <v>83.9</v>
@@ -2284,7 +2257,7 @@
         <v>1663353</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C95">
         <v>29.9</v>
@@ -2298,7 +2271,7 @@
         <v>1663378</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C96">
         <v>58.9</v>
@@ -2312,7 +2285,7 @@
         <v>1663383</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C97">
         <v>64.900000000000006</v>
@@ -2326,7 +2299,7 @@
         <v>1663354</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C98">
         <v>51.9</v>
@@ -2340,7 +2313,7 @@
         <v>1663368</v>
       </c>
       <c r="B99" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C99">
         <v>29</v>
@@ -2354,7 +2327,7 @@
         <v>1663369</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C100">
         <v>19</v>
@@ -2368,7 +2341,7 @@
         <v>1663370</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C101">
         <v>35.9</v>
@@ -2382,7 +2355,7 @@
         <v>1663371</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C102">
         <v>22.9</v>
@@ -2396,7 +2369,7 @@
         <v>5064302</v>
       </c>
       <c r="B103" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C103">
         <v>19.899999999999999</v>
@@ -2410,7 +2383,7 @@
         <v>1663365</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C104">
         <v>31.9</v>
@@ -2424,7 +2397,7 @@
         <v>1663375</v>
       </c>
       <c r="B105" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105">
         <v>59.9</v>
@@ -2438,7 +2411,7 @@
         <v>1663376</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C106">
         <v>32</v>
@@ -2452,7 +2425,7 @@
         <v>1663372</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C107">
         <v>34.9</v>
@@ -2466,7 +2439,7 @@
         <v>2668403</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C108">
         <v>9.9</v>
@@ -2480,7 +2453,7 @@
         <v>2668405</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C109">
         <v>9.9</v>
@@ -2494,7 +2467,7 @@
         <v>1663361</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C110">
         <v>31.9</v>
@@ -2508,7 +2481,7 @@
         <v>1663359</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C111">
         <v>31.9</v>
@@ -2522,7 +2495,7 @@
         <v>1663360</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C112">
         <v>31.9</v>
@@ -2536,7 +2509,7 @@
         <v>1663390</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C113">
         <v>82.9</v>
@@ -2550,7 +2523,7 @@
         <v>1663391</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C114">
         <v>45</v>
@@ -2564,7 +2537,7 @@
         <v>1663392</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C115">
         <v>89.9</v>
@@ -2578,7 +2551,7 @@
         <v>1663393</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C116">
         <v>62.9</v>
@@ -2592,7 +2565,7 @@
         <v>1663366</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C117">
         <v>40.9</v>
@@ -2606,7 +2579,7 @@
         <v>1663367</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C118">
         <v>24</v>
@@ -2620,7 +2593,7 @@
         <v>1663377</v>
       </c>
       <c r="B119" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C119">
         <v>59.9</v>
@@ -2634,7 +2607,7 @@
         <v>1990386</v>
       </c>
       <c r="B120" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C120">
         <v>32</v>
@@ -2648,7 +2621,7 @@
         <v>1663379</v>
       </c>
       <c r="B121" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C121">
         <v>59.9</v>
@@ -2662,13 +2635,13 @@
         <v>3108196</v>
       </c>
       <c r="B122" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C122">
         <v>25.9</v>
       </c>
       <c r="D122" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,13 +2649,13 @@
         <v>1663332</v>
       </c>
       <c r="B123" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C123">
         <v>45.9</v>
       </c>
       <c r="D123" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2690,13 +2663,13 @@
         <v>1663421</v>
       </c>
       <c r="B124" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C124">
         <v>39.9</v>
       </c>
       <c r="D124" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2704,13 +2677,13 @@
         <v>1949629</v>
       </c>
       <c r="B125" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C125">
         <v>49.9</v>
       </c>
       <c r="D125" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,13 +2691,13 @@
         <v>1663388</v>
       </c>
       <c r="B126" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C126">
         <v>78.900000000000006</v>
       </c>
       <c r="D126" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,13 +2705,13 @@
         <v>1663389</v>
       </c>
       <c r="B127" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C127">
         <v>47.9</v>
       </c>
       <c r="D127" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2746,13 +2719,13 @@
         <v>1663333</v>
       </c>
       <c r="B128" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C128">
         <v>38.9</v>
       </c>
       <c r="D128" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2760,13 +2733,13 @@
         <v>1663407</v>
       </c>
       <c r="B129" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C129">
         <v>23.9</v>
       </c>
       <c r="D129" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2774,13 +2747,13 @@
         <v>1663408</v>
       </c>
       <c r="B130" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C130">
         <v>23.9</v>
       </c>
       <c r="D130" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2788,13 +2761,13 @@
         <v>1663382</v>
       </c>
       <c r="B131" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C131">
         <v>76.900000000000006</v>
       </c>
       <c r="D131" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2802,13 +2775,13 @@
         <v>1663419</v>
       </c>
       <c r="B132" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C132">
         <v>31.9</v>
       </c>
       <c r="D132" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2816,13 +2789,13 @@
         <v>3108176</v>
       </c>
       <c r="B133" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C133">
         <v>32.9</v>
       </c>
       <c r="D133" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2830,13 +2803,13 @@
         <v>1663420</v>
       </c>
       <c r="B134" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C134">
         <v>37.9</v>
       </c>
       <c r="D134" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2844,13 +2817,13 @@
         <v>1949619</v>
       </c>
       <c r="B135" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C135">
         <v>40.9</v>
       </c>
       <c r="D135" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2858,13 +2831,13 @@
         <v>1663401</v>
       </c>
       <c r="B136" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C136">
         <v>109.9</v>
       </c>
       <c r="D136" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2872,13 +2845,13 @@
         <v>3824704</v>
       </c>
       <c r="B137" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C137">
         <v>18.899999999999999</v>
       </c>
       <c r="D137" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,13 +2859,13 @@
         <v>1949625</v>
       </c>
       <c r="B138" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C138">
         <v>42.9</v>
       </c>
       <c r="D138" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2900,13 +2873,13 @@
         <v>3108173</v>
       </c>
       <c r="B139" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C139">
         <v>24.9</v>
       </c>
       <c r="D139" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2914,13 +2887,13 @@
         <v>1949617</v>
       </c>
       <c r="B140" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C140">
         <v>38.9</v>
       </c>
       <c r="D140" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2928,13 +2901,13 @@
         <v>1990438</v>
       </c>
       <c r="B141" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C141">
         <v>42.9</v>
       </c>
       <c r="D141" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2942,13 +2915,13 @@
         <v>1949645</v>
       </c>
       <c r="B142" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C142">
         <v>39.9</v>
       </c>
       <c r="D142" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2956,13 +2929,13 @@
         <v>3108172</v>
       </c>
       <c r="B143" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C143">
         <v>39.9</v>
       </c>
       <c r="D143" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,13 +2943,13 @@
         <v>1663405</v>
       </c>
       <c r="B144" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C144">
         <v>159.9</v>
       </c>
       <c r="D144" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2984,13 +2957,13 @@
         <v>1663406</v>
       </c>
       <c r="B145" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C145">
         <v>189.9</v>
       </c>
       <c r="D145" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2998,13 +2971,13 @@
         <v>1949641</v>
       </c>
       <c r="B146" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C146">
         <v>59.9</v>
       </c>
       <c r="D146" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3012,13 +2985,13 @@
         <v>1949638</v>
       </c>
       <c r="B147" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C147">
         <v>56.9</v>
       </c>
       <c r="D147" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,13 +2999,13 @@
         <v>1663334</v>
       </c>
       <c r="B148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C148">
         <v>65.900000000000006</v>
       </c>
       <c r="D148" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3040,13 +3013,13 @@
         <v>1663336</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C149">
         <v>56.9</v>
       </c>
       <c r="D149" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3054,13 +3027,13 @@
         <v>1663327</v>
       </c>
       <c r="B150" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C150">
         <v>56.9</v>
       </c>
       <c r="D150" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3068,13 +3041,13 @@
         <v>1663416</v>
       </c>
       <c r="B151" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C151">
         <v>42.9</v>
       </c>
       <c r="D151" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3082,13 +3055,13 @@
         <v>1949623</v>
       </c>
       <c r="B152" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C152">
         <v>39.9</v>
       </c>
       <c r="D152" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3096,13 +3069,13 @@
         <v>1663409</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C153">
         <v>27.9</v>
       </c>
       <c r="D153" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3110,13 +3083,13 @@
         <v>1663385</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C154">
         <v>52.9</v>
       </c>
       <c r="D154" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3124,13 +3097,13 @@
         <v>1663329</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C155">
         <v>42.9</v>
       </c>
       <c r="D155" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3138,13 +3111,13 @@
         <v>1949628</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C156">
         <v>42.9</v>
       </c>
       <c r="D156" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3152,13 +3125,13 @@
         <v>1949631</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C157">
         <v>49.9</v>
       </c>
       <c r="D157" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3166,13 +3139,13 @@
         <v>1663414</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C158">
         <v>38.9</v>
       </c>
       <c r="D158" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3180,13 +3153,13 @@
         <v>1663380</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C159">
         <v>61.9</v>
       </c>
       <c r="D159" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3194,13 +3167,13 @@
         <v>1663412</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C160">
         <v>29.9</v>
       </c>
       <c r="D160" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3208,13 +3181,13 @@
         <v>1663381</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C161">
         <v>41.9</v>
       </c>
       <c r="D161" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3222,13 +3195,13 @@
         <v>3108174</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C162">
         <v>31.9</v>
       </c>
       <c r="D162" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3236,13 +3209,13 @@
         <v>1663425</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C163">
         <v>49.9</v>
       </c>
       <c r="D163" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3250,13 +3223,13 @@
         <v>1663411</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C164">
         <v>33.9</v>
       </c>
       <c r="D164" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3264,13 +3237,13 @@
         <v>1663410</v>
       </c>
       <c r="B165" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C165">
         <v>27.9</v>
       </c>
       <c r="D165" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3278,13 +3251,13 @@
         <v>3108177</v>
       </c>
       <c r="B166" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C166">
         <v>17.899999999999999</v>
       </c>
       <c r="D166" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3292,13 +3265,13 @@
         <v>1663351</v>
       </c>
       <c r="B167" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C167">
         <v>41.9</v>
       </c>
       <c r="D167" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3306,111 +3279,13 @@
         <v>1663350</v>
       </c>
       <c r="B168" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C168">
         <v>23.9</v>
       </c>
       <c r="D168" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1690389</v>
-      </c>
-      <c r="B169" t="s">
-        <v>31</v>
-      </c>
-      <c r="C169">
-        <v>8</v>
-      </c>
-      <c r="D169" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>1663322</v>
-      </c>
-      <c r="B170" t="s">
-        <v>176</v>
-      </c>
-      <c r="C170">
-        <v>95</v>
-      </c>
-      <c r="D170" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>1663323</v>
-      </c>
-      <c r="B171" t="s">
-        <v>178</v>
-      </c>
-      <c r="C171">
-        <v>95</v>
-      </c>
-      <c r="D171" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>1663324</v>
-      </c>
-      <c r="B172" t="s">
-        <v>179</v>
-      </c>
-      <c r="C172">
-        <v>65</v>
-      </c>
-      <c r="D172" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>1663321</v>
-      </c>
-      <c r="B173" t="s">
-        <v>180</v>
-      </c>
-      <c r="C173">
-        <v>95</v>
-      </c>
-      <c r="D173" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>1663325</v>
-      </c>
-      <c r="B174" t="s">
-        <v>181</v>
-      </c>
-      <c r="C174">
-        <v>65</v>
-      </c>
-      <c r="D174" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1663320</v>
-      </c>
-      <c r="B175" t="s">
-        <v>182</v>
-      </c>
-      <c r="C175">
-        <v>65</v>
-      </c>
-      <c r="D175" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
